--- a/biology/Botanique/Pinopsida/Pinopsida.xlsx
+++ b/biology/Botanique/Pinopsida/Pinopsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe des Pinopsida est une classe de la division des Pinophyta (Conifères). Elle compte 600-650 espèces. Celles-ci sont caractérisées par des feuilles généralement petites et toujours simples et par une croissance secondaire active de la tige et de la racine.
 Beaucoup de membres de ce groupe se sont épanouis à des périodes carbonifères inférieures à l'âge permien.
@@ -513,7 +525,9 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Araucaria araucana (Araucariaceae)
